--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/2.XuLyBH/XLBH2305_DLSea.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/2.XuLyBH/XLBH2305_DLSea.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="52" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -316,6 +316,48 @@
   </si>
   <si>
     <t>ID mới: 202305111605860</t>
+  </si>
+  <si>
+    <t>ID mới: 202305111625704</t>
+  </si>
+  <si>
+    <t>ID mới: 202305120856612</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>ID mới: 202305120915340</t>
+  </si>
+  <si>
+    <t>ID mới: 202305120939560</t>
+  </si>
+  <si>
+    <t>ID mới: 202305120957088</t>
+  </si>
+  <si>
+    <t>ID mới: 202305121108605</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>ID mới: 202305151058171</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, xử lý lại khối GSM</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>GSM,NCFW</t>
+  </si>
+  <si>
+    <t>ID mới: 202305111329987</t>
   </si>
 </sst>
 </file>
@@ -724,6 +766,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -741,30 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="M4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showZeros="0" topLeftCell="L4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,41 +1150,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1175,57 +1217,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1256,16 +1298,16 @@
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1317,9 @@
       <c r="B6" s="58">
         <v>45056</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="58">
+        <v>45062</v>
+      </c>
       <c r="D6" s="46" t="s">
         <v>43</v>
       </c>
@@ -1286,20 +1330,38 @@
       <c r="G6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1314,7 +1376,9 @@
       <c r="B7" s="58">
         <v>45056</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="58">
+        <v>45062</v>
+      </c>
       <c r="D7" s="46" t="s">
         <v>43</v>
       </c>
@@ -1325,20 +1389,36 @@
       <c r="G7" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
+      <c r="H7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="M7" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="64"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1431,9 @@
       <c r="B8" s="58">
         <v>45056</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="58">
+        <v>45062</v>
+      </c>
       <c r="D8" s="46" t="s">
         <v>43</v>
       </c>
@@ -1362,20 +1444,38 @@
       <c r="G8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
+      <c r="H8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="M8" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="63"/>
+      <c r="O8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="64"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1488,9 @@
       <c r="B9" s="58">
         <v>45056</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="58">
+        <v>45062</v>
+      </c>
       <c r="D9" s="46" t="s">
         <v>43</v>
       </c>
@@ -1399,20 +1501,38 @@
       <c r="G9" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="H9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="M9" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="63"/>
+      <c r="O9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="64"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1425,7 +1545,9 @@
       <c r="B10" s="58">
         <v>45056</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="58">
+        <v>45062</v>
+      </c>
       <c r="D10" s="46" t="s">
         <v>43</v>
       </c>
@@ -1436,20 +1558,36 @@
       <c r="G10" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+      <c r="H10" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="63"/>
+      <c r="O10" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="64"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1600,9 @@
       <c r="B11" s="58">
         <v>45056</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="58">
+        <v>45062</v>
+      </c>
       <c r="D11" s="46" t="s">
         <v>43</v>
       </c>
@@ -1473,20 +1613,36 @@
       <c r="G11" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="61"/>
+      <c r="H11" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="63"/>
+      <c r="O11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="64"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1499,7 +1655,9 @@
       <c r="B12" s="58">
         <v>45056</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="58">
+        <v>45062</v>
+      </c>
       <c r="D12" s="46" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1697,7 @@
       </c>
       <c r="S12" s="64"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1554,7 +1712,9 @@
       <c r="B13" s="58">
         <v>45056</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="58">
+        <v>45062</v>
+      </c>
       <c r="D13" s="46" t="s">
         <v>43</v>
       </c>
@@ -1594,7 +1754,7 @@
       </c>
       <c r="S13" s="64"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1809,7 @@
       </c>
       <c r="S14" s="64"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +1864,7 @@
       </c>
       <c r="S15" s="64"/>
       <c r="T15" s="67"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1919,7 @@
       </c>
       <c r="S16" s="64"/>
       <c r="T16" s="67"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2054,7 +2214,9 @@
       <c r="B22" s="58">
         <v>45056</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="58">
+        <v>45062</v>
+      </c>
       <c r="D22" s="46" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2269,9 @@
       <c r="B23" s="58">
         <v>45056</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="58">
+        <v>45062</v>
+      </c>
       <c r="D23" s="46" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2434,9 @@
       <c r="B26" s="58">
         <v>45056</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="58">
+        <v>45062</v>
+      </c>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -2281,17 +2447,33 @@
       <c r="G26" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="59"/>
+      <c r="H26" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>66</v>
+      </c>
       <c r="J26" s="64"/>
-      <c r="K26" s="62"/>
+      <c r="K26" s="62" t="s">
+        <v>63</v>
+      </c>
       <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="M26" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="63"/>
+      <c r="O26" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="S26" s="64"/>
       <c r="T26" s="67"/>
       <c r="U26" s="3" t="s">
@@ -2428,7 +2610,9 @@
       <c r="B29" s="58">
         <v>45056</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="58">
+        <v>45062</v>
+      </c>
       <c r="D29" s="46" t="s">
         <v>43</v>
       </c>
@@ -3782,13 +3966,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3800,6 +3977,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3810,8 +3994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3843,41 +4027,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -3910,57 +4094,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3991,16 +4175,16 @@
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4010,7 +4194,9 @@
       <c r="B6" s="58">
         <v>45056</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="58">
+        <v>45062</v>
+      </c>
       <c r="D6" s="46" t="s">
         <v>62</v>
       </c>
@@ -4021,20 +4207,40 @@
       <c r="G6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="H6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>104</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>106</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4065,7 +4271,7 @@
       <c r="R7" s="63"/>
       <c r="S7" s="64"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -4094,7 +4300,7 @@
       <c r="R8" s="63"/>
       <c r="S8" s="64"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4123,7 +4329,7 @@
       <c r="R9" s="63"/>
       <c r="S9" s="64"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -4152,7 +4358,7 @@
       <c r="R10" s="63"/>
       <c r="S10" s="64"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -4181,7 +4387,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -4210,7 +4416,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4241,7 +4447,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -4270,7 +4476,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -4299,7 +4505,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4328,7 +4534,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -4656,7 +4862,7 @@
       </c>
       <c r="V27" s="3">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="12"/>
     </row>
@@ -6029,13 +6235,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6047,6 +6246,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6090,39 +6296,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -6155,57 +6361,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="77" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="77" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -6236,16 +6442,16 @@
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="83"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="76"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,7 +6477,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6302,7 +6508,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -6331,7 +6537,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6360,7 +6566,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -6389,7 +6595,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6418,7 +6624,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6447,7 +6653,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6478,7 +6684,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -6507,7 +6713,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -6536,7 +6742,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6565,7 +6771,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -7796,6 +8002,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7807,13 +8020,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
